--- a/biology/Médecine/Insulinothérapie_conventionnelle/Insulinothérapie_conventionnelle.xlsx
+++ b/biology/Médecine/Insulinothérapie_conventionnelle/Insulinothérapie_conventionnelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Insulinoth%C3%A9rapie_conventionnelle</t>
+          <t>Insulinothérapie_conventionnelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'insulinothérapie conventionnelle a pour objectif de normaliser la glycémie sur le nycthémère avec une glycémie à jeun (le matin au réveil) la plus proche de la normale (soit de 0,8 à 1,2 g/l).
 Plusieurs protocoles d'insulinothérapie sont utilisés chez les diabétiques de type 1 (ou insulinodépendant), en fonction de leur profil, de l'existence ou non de complications et de leur âge :
